--- a/My Stuff/Useful git.xlsx
+++ b/My Stuff/Useful git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MarTech\My Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documentation\My Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D35DC-D539-46E5-BE83-149317168D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F483D-1DE9-43EE-8683-82923CB680C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1738D085-A1E9-4F43-A70F-7BC6327270A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -55,19 +55,31 @@
   </si>
   <si>
     <t>git reset --hard head</t>
+  </si>
+  <si>
+    <t>Create branch that tracks remote</t>
+  </si>
+  <si>
+    <t>git checkout -b newLocalBranch remoteName/remoteBranch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,16 +421,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807C26D6-02FF-46B3-B825-557ADF6E0CF6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,6 +473,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
